--- a/biology/Histoire de la zoologie et de la botanique/Harry_Crécy_Yarrow/Harry_Crécy_Yarrow.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Harry_Crécy_Yarrow/Harry_Crécy_Yarrow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Harry_Cr%C3%A9cy_Yarrow</t>
+          <t>Harry_Crécy_Yarrow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry (ou Harry) Crècy Yarrow est un médecin et un naturaliste américain, né le 19 novembre 1840 à Philadelphie et mort en 1929.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harry_Cr%C3%A9cy_Yarrow</t>
+          <t>Harry_Crécy_Yarrow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études en Pennsylvanie et à Genève. Il obtient un doctorat en médecine à l'université d'État de Pennsylvanie en 1861. Il sert deux ans dans l'armée américaine, comme chirurgien-assistant au 5e de cavalerie.
 Il quitte l'armée en 1862 et travaille à l'hôpital de Philadelphie. En 1866, il doit affronter une grave épidémie de choléra à Atlanta, puis à Savanna. En 1867, il se rend à Fort Wood pour y soigner également une épidémie de choléra.
